--- a/templates/certificate-f-1.xlsx
+++ b/templates/certificate-f-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\SchoolRanker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1454A75-E0F9-4C55-B6CF-1290EBB0977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3DE3D9-6C4D-4E38-BE97-FB2909887F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24165" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>الشــهادة المدرسية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المرحلة الاساسية – من الصف الأول الى الصف العاشر </t>
   </si>
   <si>
     <t>اســــــم الـطــالــــب :</t>
@@ -228,11 +225,53 @@
     <t>ناجح</t>
   </si>
   <si>
-    <t>العام الدراسي 2025/2024</t>
+    <t>التربية الإسلامية</t>
+  </si>
+  <si>
+    <t>اللغة الإنجليزية</t>
+  </si>
+  <si>
+    <t>الرياضيات</t>
+  </si>
+  <si>
+    <t>العلوم</t>
+  </si>
+  <si>
+    <t>التربية الفنية والموسيقية</t>
+  </si>
+  <si>
+    <t>التربية الرياضية</t>
+  </si>
+  <si>
+    <t>الثقافة المالية</t>
+  </si>
+  <si>
+    <t>التربية المهنية</t>
+  </si>
+  <si>
+    <t>المهارات الرقمية</t>
+  </si>
+  <si>
+    <t>اللغة الفرنسية</t>
+  </si>
+  <si>
+    <t>الدين المسيحي</t>
+  </si>
+  <si>
+    <t>وزارة التربية والتعليم</t>
+  </si>
+  <si>
+    <t>اللغة العربية</t>
+  </si>
+  <si>
+    <t>التربية الاجتماعية و الوطنية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العام الدراسي </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1) تعقد اختبارات الإكمال في المدرسة وتعتمد نتائجها من يوم  </t>
+      <t xml:space="preserve">1) تعقد اختبارات الإكمال في المدرسة وتعتمد نتائجها من يوم      الموافق         الى يوم </t>
     </r>
     <r>
       <rPr>
@@ -242,7 +281,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>الأحد</t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -252,27 +291,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> الموافق 10/8/2025 الى يوم </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>الأربعاء</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> الموافق 13/8/2025  </t>
+      <t xml:space="preserve"> الموافق    </t>
     </r>
   </si>
   <si>
@@ -287,7 +306,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>الأربعاء</t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -307,7 +326,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">الموافق 13/8/2025 الى يوم </t>
+      <t xml:space="preserve">الموافق      الى يوم </t>
     </r>
     <r>
       <rPr>
@@ -317,7 +336,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>الخميس</t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -327,7 +346,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> الموافق 14/8/2025   </t>
+      <t xml:space="preserve"> الموافق     </t>
     </r>
   </si>
   <si>
@@ -352,7 +371,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> الدراسي 2025 /2026 يوم </t>
+      <t xml:space="preserve"> الدراسي         يوم </t>
     </r>
     <r>
       <rPr>
@@ -362,7 +381,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>الأحد</t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -372,50 +391,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> الموافق 17/8/2024  </t>
+      <t xml:space="preserve"> الموافق   </t>
     </r>
   </si>
   <si>
-    <t>التربية الإسلامية</t>
-  </si>
-  <si>
-    <t>اللغة الإنجليزية</t>
-  </si>
-  <si>
-    <t>الرياضيات</t>
-  </si>
-  <si>
-    <t>العلوم</t>
-  </si>
-  <si>
-    <t>التربية الفنية والموسيقية</t>
-  </si>
-  <si>
-    <t>التربية الرياضية</t>
-  </si>
-  <si>
-    <t>الثقافة المالية</t>
-  </si>
-  <si>
-    <t>التربية المهنية</t>
-  </si>
-  <si>
-    <t>المهارات الرقمية</t>
-  </si>
-  <si>
-    <t>اللغة الفرنسية</t>
-  </si>
-  <si>
-    <t>الدين المسيحي</t>
-  </si>
-  <si>
-    <t>وزارة التربية والتعليم</t>
-  </si>
-  <si>
-    <t>اللغة العربية</t>
-  </si>
-  <si>
-    <t>التربية الاجتماعية و الوطنية</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -984,6 +964,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -999,6 +982,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1089,6 +1075,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
@@ -1106,18 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:H69"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70:P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1729,123 +1709,123 @@
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1"/>
     <row r="3" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="2:17" ht="21" customHeight="1">
-      <c r="B8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="2:17" ht="9" customHeight="1" thickBot="1">
@@ -1867,258 +1847,258 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+    </row>
+    <row r="11" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-    </row>
-    <row r="11" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C13" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C13" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C15" s="39" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="2:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-    </row>
-    <row r="19" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C19" s="39" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-    </row>
-    <row r="20" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C20" s="39" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-    </row>
-    <row r="22" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C22" s="39" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
+      <c r="C23" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="2:16" ht="27.95" customHeight="1" thickBot="1">
-      <c r="C23" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="2:16" ht="4.9000000000000004" customHeight="1">
       <c r="C24" s="9"/>
@@ -2137,79 +2117,79 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="C25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="C25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="2:16" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B26" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
+      <c r="B26" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
     </row>
     <row r="27" spans="2:16" ht="19.149999999999999" customHeight="1">
-      <c r="B27" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
+      <c r="B27" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
     </row>
     <row r="28" spans="2:16" s="11" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="B28" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
+      <c r="B28" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="2:16" s="11" customFormat="1" ht="5.45" customHeight="1" thickBot="1">
       <c r="B29" s="10"/>
@@ -2222,81 +2202,81 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:16" ht="22.5" customHeight="1" thickTop="1">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+    </row>
+    <row r="31" spans="2:16" ht="18.75" customHeight="1">
+      <c r="B31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-    </row>
-    <row r="31" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B31" s="33" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33" t="s">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33" t="s">
+      <c r="N31" s="35"/>
+      <c r="O31" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33" t="s">
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="2:16" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B32" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P31" s="33"/>
-    </row>
-    <row r="32" spans="2:16" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B32" s="36" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="38"/>
+      <c r="I32" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="38"/>
+      <c r="K32" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36" t="s">
+      <c r="L32" s="38"/>
+      <c r="M32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="38"/>
+      <c r="O32" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="36"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="2:16" ht="6" customHeight="1" thickTop="1">
       <c r="C33" s="3"/>
@@ -2307,67 +2287,67 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B35" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="B35" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="2:16" ht="16.5" customHeight="1">
+      <c r="B37" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-    </row>
-    <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="2:16" ht="19.899999999999999" customHeight="1">
-      <c r="B38" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
+      <c r="B38" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
     </row>
     <row r="39" spans="2:16" ht="4.1500000000000004" customHeight="1" thickBot="1">
       <c r="C39" s="2"/>
@@ -2378,42 +2358,42 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:16" ht="21.6" customHeight="1" thickBot="1">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="2:16" ht="24" customHeight="1" thickBot="1">
+      <c r="B41" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-    </row>
-    <row r="41" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B41" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
     </row>
     <row r="42" spans="2:16" ht="7.5" customHeight="1" thickBot="1">
       <c r="C42" s="4"/>
@@ -2424,301 +2404,299 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:16" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="35" t="s">
+      <c r="J43" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="K43" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="65" t="s">
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65" t="s">
+      <c r="P43" s="69"/>
+    </row>
+    <row r="44" spans="2:16" ht="21.6" customHeight="1" thickBot="1">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P43" s="65"/>
-    </row>
-    <row r="44" spans="2:16" ht="21.6" customHeight="1" thickBot="1">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35" t="s">
+      <c r="L44" s="37"/>
+      <c r="M44" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" s="35"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
     </row>
     <row r="45" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+    </row>
+    <row r="46" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B46" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+    </row>
+    <row r="47" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B47" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+    </row>
+    <row r="48" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B48" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+    </row>
+    <row r="49" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B49" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+    </row>
+    <row r="50" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B50" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+    </row>
+    <row r="51" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B51" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+    </row>
+    <row r="52" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B52" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69">
-        <v>100</v>
-      </c>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-    </row>
-    <row r="46" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B46" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-    </row>
-    <row r="47" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B47" s="34" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+    </row>
+    <row r="53" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B53" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-    </row>
-    <row r="48" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B48" s="34" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+    </row>
+    <row r="54" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B54" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-    </row>
-    <row r="49" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B49" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-    </row>
-    <row r="50" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B50" s="34" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+    </row>
+    <row r="55" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B55" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-    </row>
-    <row r="51" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B51" s="34" t="s">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+    </row>
+    <row r="56" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B56" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-    </row>
-    <row r="52" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B52" s="34" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+    </row>
+    <row r="57" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B57" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-    </row>
-    <row r="53" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B53" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-    </row>
-    <row r="54" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B54" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-    </row>
-    <row r="55" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B55" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-    </row>
-    <row r="56" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B56" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-    </row>
-    <row r="57" spans="2:16" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B57" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
     </row>
     <row r="58" spans="2:16" ht="7.15" customHeight="1" thickBot="1">
       <c r="C58" s="5"/>
@@ -2735,237 +2713,238 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="K59" s="44" t="s">
+      <c r="K59" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="47">
+        <v>217</v>
+      </c>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+    </row>
+    <row r="60" spans="2:16" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
+      <c r="B60" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="60"/>
+      <c r="I60" s="23"/>
+      <c r="K60" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45">
-        <v>217</v>
-      </c>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-    </row>
-    <row r="60" spans="2:16" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B60" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="23"/>
-      <c r="K60" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
     </row>
     <row r="61" spans="2:16" s="15" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="17"/>
       <c r="E61" s="22"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="23"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
     </row>
     <row r="62" spans="2:16" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64"/>
       <c r="I62" s="23"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
     </row>
     <row r="63" spans="2:16" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="18"/>
       <c r="E63" s="16"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" s="58"/>
+      <c r="G63" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="60"/>
       <c r="I63" s="23"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
     </row>
     <row r="64" spans="2:16" s="15" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B64" s="52"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="17"/>
       <c r="E64" s="22"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="60"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="23"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
     </row>
     <row r="65" spans="2:17" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="20"/>
       <c r="E65" s="16"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
       <c r="I65" s="23"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
     </row>
     <row r="66" spans="2:17" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="58"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="60"/>
       <c r="I66" s="23"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
     </row>
     <row r="67" spans="2:17" s="15" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="17"/>
       <c r="E67" s="22"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="62"/>
       <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:17" s="15" customFormat="1" ht="4.3499999999999996" customHeight="1" thickBot="1">
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="62"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:17" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B69" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="72"/>
+      <c r="B69" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="66"/>
       <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:17" ht="18.75" customHeight="1">
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30" t="s">
+      <c r="K70" s="31"/>
+      <c r="L70" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="29" t="s">
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="27"/>
+    </row>
+    <row r="71" spans="2:17" ht="24" customHeight="1">
+      <c r="B71" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="27"/>
-    </row>
-    <row r="71" spans="2:17" ht="24" customHeight="1">
-      <c r="B71" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="38"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="M71" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B72" s="40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" ht="22.5" customHeight="1">
-      <c r="B72" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
     </row>
     <row r="73" spans="2:17" ht="21" customHeight="1">
-      <c r="B73" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="B73" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <mergeCells count="140">
+    <mergeCell ref="L70:P70"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
@@ -3019,9 +2998,6 @@
     <mergeCell ref="G63:H65"/>
     <mergeCell ref="G66:H68"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="K53:L53"/>
     <mergeCell ref="O49:P49"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="K54:L54"/>
@@ -3058,6 +3034,9 @@
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="K63:P66"/>
     <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="K53:L53"/>
     <mergeCell ref="B7:P7"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="B5:P5"/>
@@ -3083,7 +3062,6 @@
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="J23:P23"/>
-    <mergeCell ref="M70:P70"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="C25:P25"/>
     <mergeCell ref="B8:P8"/>
